--- a/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -112,24 +112,24 @@
     <t>healthy</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -145,10 +145,10 @@
     <t>hand</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
   </si>
   <si>
     <t>care</t>
@@ -802,7 +802,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1444,25 +1444,25 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7043478260869566</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L19">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="N19">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="O19">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1470,13 +1470,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.7017543859649122</v>
+        <v>0.6928571428571428</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>0.98</v>
@@ -1488,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1496,25 +1496,25 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6928571428571428</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L21">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1522,25 +1522,25 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6904761904761905</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1548,25 +1548,25 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6862745098039216</v>
+        <v>0.6831683168316832</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1574,25 +1574,25 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6831683168316832</v>
+        <v>0.6778242677824268</v>
       </c>
       <c r="L24">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1730,25 +1730,25 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.581039755351682</v>
+        <v>0.5625</v>
       </c>
       <c r="L30">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>203</v>
+        <v>37</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>137</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1756,25 +1756,25 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5625</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="L31">
-        <v>36</v>
+        <v>190</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>190</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="10:17">
